--- a/Таблица метрик бинарной классификации.xlsx
+++ b/Таблица метрик бинарной классификации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Igorex\Documents\Универ\Бакалаврская работа (диплом)\Диплом\We unite to write our code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDFAB72-1EE8-4950-8F8C-D30AB1D4F88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A6DAC3-A5C1-4387-92E9-BA9D63D628E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F28F30C7-DF21-4A72-B187-121A621813A9}"/>
   </bookViews>
@@ -30,35 +30,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Логистическая регрессия</t>
   </si>
   <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
     <t>КБС</t>
   </si>
   <si>
     <t>0.85</t>
   </si>
   <si>
-    <t>0.90</t>
-  </si>
-  <si>
     <t>Дерево решений</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
     <t>Случайный лес</t>
   </si>
   <si>
@@ -71,10 +56,31 @@
     <t>Macro avg F1 name</t>
   </si>
   <si>
-    <t>Accuracy annotation</t>
-  </si>
-  <si>
-    <t>Macro avg F1 annotation</t>
+    <t>Accuracy bibliographic description</t>
+  </si>
+  <si>
+    <t>Macro avg F1 bibliographic description</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>Accuracy keywords</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.97</t>
   </si>
 </sst>
 </file>
@@ -471,98 +477,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFE479B-A678-45F3-A969-834D92D6576B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
